--- a/Evaluation_outil.xlsx
+++ b/Evaluation_outil.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurtt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CDFD7B-8406-4424-AA9A-DC8E1CE09005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{536176A3-610D-4E00-8CE2-6CD89920B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Lemmy</t>
   </si>
@@ -106,29 +105,8 @@
 capacité de filtrage avancée sur les communautés, utilisateurs et publication</t>
   </si>
   <si>
-    <t xml:space="preserve">5- Interface minimaliste et très claire.
- L'expérience utilisateur est fluide et simple.	</t>
-  </si>
-  <si>
-    <t>4-peut être un peu complexe pour
- les utilisateurs novices</t>
-  </si>
-  <si>
-    <t>4- parfois surchargée avec de nombreuses options</t>
-  </si>
-  <si>
     <t xml:space="preserve">4- Recherche rapide avec une 
 capacité de filtrage avancée sur les communautés, utilisateurs et publication	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Recherche efficace mais avec quelques
- limitations en termes de filtrage avancé.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- trie par popularité récente	</t>
-  </si>
-  <si>
-    <t>4- trie par activité</t>
   </si>
   <si>
     <t>open-source</t>
@@ -166,22 +144,12 @@
     <t>utilisation d'un proxy authentification</t>
   </si>
   <si>
-    <t>3- trie par date</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 3- Principalement orienté forums, 
 mais permet la publication de messages et de liens, du code etc..
 </t>
   </si>
   <si>
-    <t>Option de partage en dehors de
- l'outil</t>
-  </si>
-  <si>
-    <t>3- Présence de filtres pour rechercher des publications, pas de tags</t>
-  </si>
-  <si>
     <t>5- Docker et autres solutions.</t>
   </si>
   <si>
@@ -191,17 +159,111 @@
     <t xml:space="preserve">5- Docker </t>
   </si>
   <si>
-    <t>4- Possibilité de mettre des tags, présence de filtre pour recherche</t>
+    <t xml:space="preserve">4- trie par popularité récente
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- trie par date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Présence de filtres pour rechercher des publications, pas de tags
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines extensions WordPress, Ghost, ou
+ solutions JS comme AddToAny ou 
+ShareButtons.js permettent d'ajouter 
+un "Custom Share Button"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension posttolemmy
+(en développement)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome/Firefox extension “Share to discourse”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option de partage en dehors de
+ l'outil
+</t>
+  </si>
+  <si>
+    <t>3- Recherche rapide avec une 
+capacité de filtrage avancée sur les communautés, utilisateurs,  publication, date …</t>
+  </si>
+  <si>
+    <t>4- Possibilité de mettre des tags, présence de filtre pour recherche "Latest" et "Hot"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Interface minimaliste et très claire.
+ Possibilité de modification peu voir pas du tout </t>
+  </si>
+  <si>
+    <t>4-Interface plutôt clair avec beaucoup d'option pour l'admin. Possibilité de modifier lìnterface,présence de thème</t>
+  </si>
+  <si>
+    <t>4- parfois surchargée avec de nombreuses options mais simple à 
+utiliser, de type réseau social.Possibilité de modifier l'interface
+, avec différent thème</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- trie par activité, date et nombre de réponse
+</t>
+  </si>
+  <si>
+    <t>Fonctionnalité unique</t>
+  </si>
+  <si>
+    <t>Trust Level, Badges</t>
+  </si>
+  <si>
+    <t>marketplace</t>
+  </si>
+  <si>
+    <t>Modération communautaire</t>
+  </si>
+  <si>
+    <t>Trust Level, les signalements</t>
+  </si>
+  <si>
+    <t>Oui, avec votes + signalements</t>
+  </si>
+  <si>
+    <t>modos définis par admin</t>
+  </si>
+  <si>
+    <t>Système de permissions avancé</t>
+  </si>
+  <si>
+    <t>Basique (modération par communauté)</t>
+  </si>
+  <si>
+    <t>Par groupe / catégorie</t>
+  </si>
+  <si>
+    <t>Par espace / module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -247,8 +310,20 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974D5F3-AF89-4ED0-99FE-E32E8C03AF3D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +698,7 @@
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="2" width="35.453125" customWidth="1"/>
     <col min="3" max="3" width="36.453125" customWidth="1"/>
-    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+    <col min="4" max="4" width="57.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -642,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -656,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -670,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -687,7 +762,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -701,21 +776,21 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -726,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -740,13 +815,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -768,13 +843,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -782,22 +857,74 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" display="https://meta.discourse.org/t/chrome-firefox-extension-share-to-discourse/21104" xr:uid="{D2910429-D2EF-4CD2-9082-368D5D966558}"/>
+    <hyperlink ref="B13" r:id="rId2" display="Extension posttolemmy_x000a_https://github.com/NiceOpenSource/posttolemmy_x000a__x000a__x000a__x000a_" xr:uid="{44C977DD-4683-46DB-A115-5AFDA0DC047B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Evaluation_outil.xlsx
+++ b/Evaluation_outil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurtt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536176A3-610D-4E00-8CE2-6CD89920B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C903B74F-13EF-4AB2-A075-54947E3F37AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Lemmy</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Oui, avec votes + signalements</t>
   </si>
   <si>
-    <t>modos définis par admin</t>
-  </si>
-  <si>
     <t>Système de permissions avancé</t>
   </si>
   <si>
@@ -246,6 +243,28 @@
   </si>
   <si>
     <t>Par espace / module</t>
+  </si>
+  <si>
+    <t>modos définis par admin, signalements</t>
+  </si>
+  <si>
+    <t>Pas d'application officielle, mais des apps 
+tierces populaires comme Jerboa (Android) 
+et Memmy (iOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatibilité mobile / Application
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application mobile officielle disponible sur
+ Android et iOS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application mobile officielle disponible sur Android.
+Ios en développement
+</t>
   </si>
 </sst>
 </file>
@@ -290,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -312,14 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974D5F3-AF89-4ED0-99FE-E32E8C03AF3D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,7 +895,7 @@
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -896,9 +907,9 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -907,16 +918,30 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
+    </row>
+    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation_outil.xlsx
+++ b/Evaluation_outil.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurtt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C903B74F-13EF-4AB2-A075-54947E3F37AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E9F78-FD8C-4C31-8543-DF5204835153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{757293C2-AC48-4AEF-BDEE-2147DA8BF635}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -248,11 +247,6 @@
     <t>modos définis par admin, signalements</t>
   </si>
   <si>
-    <t>Pas d'application officielle, mais des apps 
-tierces populaires comme Jerboa (Android) 
-et Memmy (iOS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compatibilité mobile / Application
 </t>
   </si>
@@ -265,6 +259,11 @@
     <t xml:space="preserve">Application mobile officielle disponible sur Android.
 Ios en développement
 </t>
+  </si>
+  <si>
+    <t>Pas d'application officielle, mais des apps 
+tierces comme Jerboa (Android) 
+et Memmy (iOS)</t>
   </si>
 </sst>
 </file>
@@ -683,24 +682,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240C0442-EE4E-454E-895B-5B9D9F009A76}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974D5F3-AF89-4ED0-99FE-E32E8C03AF3D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
@@ -932,16 +917,16 @@
     </row>
     <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
